--- a/2-Planilhas/2-vendas-loja2.xlsx
+++ b/2-Planilhas/2-vendas-loja2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoz\Desktop\Estudos\Python-DIO\Biblioteca-Pandas\2-Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6968E6AB-CEC4-4FE7-ACB1-DAF08B90063A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3017BB-F3A6-457F-BED2-9C9ECBF93760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>Quantidade</t>
   </si>
   <si>
-    <t>Valor</t>
-  </si>
-  <si>
     <t>BOTA COTURNO FEMININA COM ELÁSTICO TRATORADA CONFORTÁVEL - Preto - 35</t>
   </si>
   <si>
@@ -43,21 +40,6 @@
     <t>BOTA OVER 563 - Preto - 35</t>
   </si>
   <si>
-    <t>Botinha Voe Casual - Branco - 38</t>
-  </si>
-  <si>
-    <t>Botinha Voe Casual - Preto - 36</t>
-  </si>
-  <si>
-    <t>Botinha Voe Casual - Preto - 38</t>
-  </si>
-  <si>
-    <t>Botinha Voe Casual - Preto - 40</t>
-  </si>
-  <si>
-    <t>Botinha Voe Casual - Preto - 42</t>
-  </si>
-  <si>
     <t>Carteira</t>
   </si>
   <si>
@@ -484,9 +466,6 @@
     <t>Tênis Spark  - Vermelho - 43</t>
   </si>
   <si>
-    <t>Tênis Treino Academia e Caminhada Softness 2.0 VOE - Preto - 39</t>
-  </si>
-  <si>
     <t>Tênis Urbano - Black - 41</t>
   </si>
   <si>
@@ -520,19 +499,40 @@
     <t>Tênis Variados Ponta de Estoque Unissex</t>
   </si>
   <si>
-    <t>Tênis Voe Casual - Azul - 42</t>
-  </si>
-  <si>
-    <t>Tênis Voe Casual - Branco - 40</t>
-  </si>
-  <si>
-    <t>Tênis Voe Casual - Preto - 35</t>
-  </si>
-  <si>
-    <t>Tênis Voe Casual - Preto - 42</t>
-  </si>
-  <si>
     <t>Meia infantil</t>
+  </si>
+  <si>
+    <t>Receita</t>
+  </si>
+  <si>
+    <t>Botinha  Casual - Branco - 38</t>
+  </si>
+  <si>
+    <t>Botinha  Casual - Preto - 36</t>
+  </si>
+  <si>
+    <t>Botinha  Casual - Preto - 38</t>
+  </si>
+  <si>
+    <t>Botinha  Casual - Preto - 40</t>
+  </si>
+  <si>
+    <t>Botinha  Casual - Preto - 42</t>
+  </si>
+  <si>
+    <t>Tênis Treino Academia e Caminhada Softness 2.0  - Preto - 39</t>
+  </si>
+  <si>
+    <t>Tênis  Casual - Azul - 42</t>
+  </si>
+  <si>
+    <t>Tênis  Casual - Branco - 40</t>
+  </si>
+  <si>
+    <t>Tênis  Casual - Preto - 35</t>
+  </si>
+  <si>
+    <t>Tênis  Casual - Preto - 42</t>
   </si>
 </sst>
 </file>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,12 +898,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>12</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B111">
         <v>3</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B139">
         <v>3</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B140">
         <v>2</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B142">
         <v>3</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B143">
         <v>3</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B144">
         <v>4</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B145">
         <v>4</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B147">
         <v>2</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B150">
         <v>3</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B153">
         <v>2</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B161">
         <v>3</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B167">
         <v>590</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171">
         <v>2</v>
